--- a/nuevo exel.xlsx
+++ b/nuevo exel.xlsx
@@ -201,14 +201,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="23"/>
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
@@ -567,7 +567,6 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -584,8 +583,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -616,14 +616,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -632,40 +632,40 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -677,10 +677,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -770,7 +770,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -808,7 +808,7 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -825,8 +825,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -835,12 +835,12 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -849,7 +849,7 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="14"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -898,7 +898,7 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -929,7 +929,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -939,71 +939,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="17"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="14">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="13">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="14">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="13">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="17"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1021,13 +1021,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="4" fontId="13" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="14">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1036,10 +1036,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1051,9 +1051,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="8"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="17"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1061,25 +1072,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Millares 6" xfId="2"/>
-    <cellStyle name="Normal 10" xfId="3"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 12" xfId="5"/>
-    <cellStyle name="Normal 13" xfId="6"/>
-    <cellStyle name="Normal 14" xfId="7"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 6" xfId="10"/>
-    <cellStyle name="Normal 7" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 9" xfId="13"/>
-    <cellStyle name="Normal 95" xfId="14"/>
-    <cellStyle name="Normal_B200" xfId="15"/>
-    <cellStyle name="Normal_S200" xfId="16"/>
+    <cellStyle name="Millares 6" xfId="1"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 11" xfId="3"/>
+    <cellStyle name="Normal 12" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="5"/>
+    <cellStyle name="Normal 14" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 6" xfId="9"/>
+    <cellStyle name="Normal 7" xfId="10"/>
+    <cellStyle name="Normal 8" xfId="11"/>
+    <cellStyle name="Normal 9" xfId="12"/>
+    <cellStyle name="Normal 95" xfId="13"/>
+    <cellStyle name="Normal_B200" xfId="14"/>
+    <cellStyle name="Normal_S200" xfId="15"/>
+    <cellStyle name="Porcentaje" xfId="16" builtinId="5"/>
     <cellStyle name="Porcentaje 2" xfId="17"/>
   </cellStyles>
   <dxfs count="2">
@@ -1187,7 +1204,7 @@
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="8193" name="Imagen 6"/>
+        <cNvPr id="8194" name="Imagen 6"/>
         <cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
@@ -1202,7 +1219,7 @@
       <spPr bwMode="auto">
         <a:xfrm>
           <a:off x="518160" y="0"/>
-          <a:ext cx="2880360" cy="1021080"/>
+          <a:ext cx="2872740" cy="1021080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -1220,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1532,17 +1549,6 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
@@ -1574,28 +1580,12 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1670,16 +1660,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AA95"/>
+  <dimension ref="B2:W90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="18.77734375" customWidth="1" style="70" min="2" max="2"/>
@@ -1691,7 +1681,7 @@
     <col width="14.21875" customWidth="1" style="70" min="15" max="15"/>
     <col width="15.21875" customWidth="1" style="70" min="16" max="17"/>
     <col width="16.109375" customWidth="1" style="70" min="18" max="19"/>
-    <col width="19.5546875" customWidth="1" style="70" min="20" max="20"/>
+    <col width="19.6640625" customWidth="1" style="70" min="20" max="20"/>
     <col width="12.5546875" customWidth="1" style="70" min="21" max="16384"/>
   </cols>
   <sheetData>
@@ -1897,9 +1887,15 @@
       <c r="H8" s="26" t="n"/>
       <c r="I8" s="26" t="n"/>
       <c r="J8" s="30" t="n"/>
-      <c r="K8" s="27" t="n"/>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
+      <c r="K8" s="27" t="n">
+        <v>539.49</v>
+      </c>
+      <c r="L8" s="27" t="n">
+        <v>539.49</v>
+      </c>
+      <c r="M8" s="27" t="n">
+        <v>539.49</v>
+      </c>
       <c r="N8" s="27" t="n"/>
       <c r="O8" s="27" t="n"/>
       <c r="P8" s="27" t="n"/>
@@ -1926,17 +1922,33 @@
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+      <c r="F9" s="27" t="n">
+        <v>888020.71</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <v>863062.86</v>
+      </c>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
+      <c r="I9" s="27" t="n">
+        <v>744326.63</v>
+      </c>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
+      <c r="K9" s="27" t="n">
+        <v>878121.61</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>635831.0600000001</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>878121.61</v>
+      </c>
       <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="26" t="n"/>
+      <c r="O9" s="27" t="n">
+        <v>1045038.81</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>848650</v>
+      </c>
       <c r="Q9" s="31" t="n"/>
       <c r="R9" s="29">
         <f>SUM(E9:P9)</f>
@@ -1960,17 +1972,33 @@
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
+      <c r="F10" s="27" t="n">
+        <v>19670.59</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>41190.69</v>
+      </c>
       <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
+      <c r="I10" s="27" t="n">
+        <v>50730.54</v>
+      </c>
       <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
+      <c r="K10" s="27" t="n">
+        <v>1523.96</v>
+      </c>
+      <c r="L10" s="27" t="n">
+        <v>25814.09</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>1523.96</v>
+      </c>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
+      <c r="O10" s="27" t="n">
+        <v>44041.96</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <v>48135.87</v>
+      </c>
       <c r="Q10" s="32" t="n"/>
       <c r="R10" s="29">
         <f>SUM(E10:P10)</f>
@@ -1999,12 +2027,22 @@
       <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
+      <c r="K11" s="27" t="n">
+        <v>878</v>
+      </c>
+      <c r="L11" s="27" t="n">
+        <v>878</v>
+      </c>
+      <c r="M11" s="27" t="n">
+        <v>878</v>
+      </c>
       <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n"/>
+      <c r="O11" s="27" t="n">
+        <v>878</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>878</v>
+      </c>
       <c r="Q11" s="32" t="n"/>
       <c r="R11" s="29">
         <f>SUM(E11:P11)</f>
@@ -2028,17 +2066,33 @@
         </is>
       </c>
       <c r="E12" s="33" t="n"/>
-      <c r="F12" s="33" t="n"/>
-      <c r="G12" s="33" t="n"/>
+      <c r="F12" s="33" t="n">
+        <v>44871.68</v>
+      </c>
+      <c r="G12" s="33" t="n">
+        <v>178313.48</v>
+      </c>
       <c r="H12" s="33" t="n"/>
-      <c r="I12" s="33" t="n"/>
+      <c r="I12" s="33" t="n">
+        <v>141182.35</v>
+      </c>
       <c r="J12" s="33" t="n"/>
-      <c r="K12" s="33" t="n"/>
-      <c r="L12" s="33" t="n"/>
-      <c r="M12" s="33" t="n"/>
+      <c r="K12" s="33" t="n">
+        <v>44504.79</v>
+      </c>
+      <c r="L12" s="33" t="n">
+        <v>1714.96</v>
+      </c>
+      <c r="M12" s="33" t="n">
+        <v>44504.79</v>
+      </c>
       <c r="N12" s="33" t="n"/>
-      <c r="O12" s="33" t="n"/>
-      <c r="P12" s="33" t="n"/>
+      <c r="O12" s="33" t="n">
+        <v>13959.83</v>
+      </c>
+      <c r="P12" s="33" t="n">
+        <v>77040.97</v>
+      </c>
       <c r="Q12" s="34" t="n"/>
       <c r="R12" s="29">
         <f>SUM(E12:P12)</f>
@@ -2130,17 +2184,33 @@
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
+      <c r="F15" s="27" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="G15" s="27" t="n">
+        <v>162.86</v>
+      </c>
       <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n"/>
+      <c r="I15" s="27" t="n">
+        <v>286.34</v>
+      </c>
       <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
+      <c r="K15" s="27" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="L15" s="27" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="M15" s="27" t="n">
+        <v>199.26</v>
+      </c>
       <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="27" t="n"/>
+      <c r="O15" s="27" t="n">
+        <v>147.45</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <v>203.58</v>
+      </c>
       <c r="Q15" s="32" t="n"/>
       <c r="R15" s="29">
         <f>SUM(E15:P15)</f>
@@ -2304,9 +2374,15 @@
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="n"/>
-      <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n"/>
+      <c r="K20" s="27" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="L20" s="27" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="M20" s="27" t="n">
+        <v>53.96</v>
+      </c>
       <c r="N20" s="27" t="n"/>
       <c r="O20" s="27" t="n"/>
       <c r="P20" s="27" t="n"/>
@@ -2333,17 +2409,33 @@
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
+      <c r="F21" s="27" t="n">
+        <v>186484.49</v>
+      </c>
+      <c r="G21" s="27" t="n">
+        <v>181243.36</v>
+      </c>
       <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
+      <c r="I21" s="27" t="n">
+        <v>156308.72</v>
+      </c>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n"/>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
+      <c r="K21" s="27" t="n">
+        <v>184406.17</v>
+      </c>
+      <c r="L21" s="27" t="n">
+        <v>133524.58</v>
+      </c>
+      <c r="M21" s="27" t="n">
+        <v>184406.17</v>
+      </c>
       <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n"/>
-      <c r="P21" s="27" t="n"/>
+      <c r="O21" s="27" t="n">
+        <v>219458.31</v>
+      </c>
+      <c r="P21" s="27" t="n">
+        <v>178216.58</v>
+      </c>
       <c r="Q21" s="32" t="n"/>
       <c r="R21" s="29">
         <f>SUM(E21:P21)</f>
@@ -2367,17 +2459,33 @@
         </is>
       </c>
       <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
+      <c r="F22" s="27" t="n">
+        <v>4130.82</v>
+      </c>
+      <c r="G22" s="27" t="n">
+        <v>8650.059999999999</v>
+      </c>
       <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
+      <c r="I22" s="27" t="n">
+        <v>10653.42</v>
+      </c>
       <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="n"/>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n"/>
+      <c r="K22" s="27" t="n">
+        <v>320.03</v>
+      </c>
+      <c r="L22" s="27" t="n">
+        <v>5420.95</v>
+      </c>
+      <c r="M22" s="27" t="n">
+        <v>320.03</v>
+      </c>
       <c r="N22" s="27" t="n"/>
-      <c r="O22" s="27" t="n"/>
-      <c r="P22" s="27" t="n"/>
+      <c r="O22" s="27" t="n">
+        <v>9248.799999999999</v>
+      </c>
+      <c r="P22" s="27" t="n">
+        <v>10108.53</v>
+      </c>
       <c r="Q22" s="32" t="n"/>
       <c r="R22" s="29">
         <f>SUM(E22:P22)</f>
@@ -2406,12 +2514,22 @@
       <c r="H23" s="27" t="n"/>
       <c r="I23" s="27" t="n"/>
       <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="n"/>
-      <c r="L23" s="27" t="n"/>
-      <c r="M23" s="27" t="n"/>
+      <c r="K23" s="27" t="n">
+        <v>184.38</v>
+      </c>
+      <c r="L23" s="27" t="n">
+        <v>184.38</v>
+      </c>
+      <c r="M23" s="27" t="n">
+        <v>184.38</v>
+      </c>
       <c r="N23" s="27" t="n"/>
-      <c r="O23" s="27" t="n"/>
-      <c r="P23" s="27" t="n"/>
+      <c r="O23" s="27" t="n">
+        <v>184.38</v>
+      </c>
+      <c r="P23" s="27" t="n">
+        <v>184.38</v>
+      </c>
       <c r="Q23" s="32" t="n"/>
       <c r="R23" s="29">
         <f>SUM(E23:P23)</f>
@@ -2435,17 +2553,33 @@
         </is>
       </c>
       <c r="E24" s="33" t="n"/>
-      <c r="F24" s="33" t="n"/>
-      <c r="G24" s="33" t="n"/>
+      <c r="F24" s="33" t="n">
+        <v>9423.059999999999</v>
+      </c>
+      <c r="G24" s="33" t="n">
+        <v>37445.82</v>
+      </c>
       <c r="H24" s="33" t="n"/>
-      <c r="I24" s="33" t="n"/>
+      <c r="I24" s="33" t="n">
+        <v>29648.31</v>
+      </c>
       <c r="J24" s="33" t="n"/>
-      <c r="K24" s="33" t="n"/>
-      <c r="L24" s="33" t="n"/>
-      <c r="M24" s="33" t="n"/>
+      <c r="K24" s="33" t="n">
+        <v>9344.280000000001</v>
+      </c>
+      <c r="L24" s="33" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="M24" s="33" t="n">
+        <v>9344.280000000001</v>
+      </c>
       <c r="N24" s="33" t="n"/>
-      <c r="O24" s="33" t="n"/>
-      <c r="P24" s="33" t="n"/>
+      <c r="O24" s="33" t="n">
+        <v>2931.56</v>
+      </c>
+      <c r="P24" s="33" t="n">
+        <v>16359.94</v>
+      </c>
       <c r="Q24" s="34" t="n"/>
       <c r="R24" s="29">
         <f>SUM(E24:P24)</f>
@@ -2537,17 +2671,33 @@
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
+      <c r="F27" s="27" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="n"/>
+      <c r="I27" s="27" t="n">
+        <v>14.89</v>
+      </c>
       <c r="J27" s="27" t="n"/>
-      <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="n"/>
-      <c r="M27" s="27" t="n"/>
+      <c r="K27" s="27" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="L27" s="27" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M27" s="27" t="n">
+        <v>10.36</v>
+      </c>
       <c r="N27" s="27" t="n"/>
-      <c r="O27" s="27" t="n"/>
-      <c r="P27" s="27" t="n"/>
+      <c r="O27" s="27" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="P27" s="27" t="n">
+        <v>10.59</v>
+      </c>
       <c r="Q27" s="32" t="n"/>
       <c r="R27" s="29">
         <f>SUM(E27:P27)</f>
@@ -2672,17 +2822,33 @@
         </is>
       </c>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="27" t="n"/>
+      <c r="F31" s="27" t="n">
+        <v>536654</v>
+      </c>
+      <c r="G31" s="27" t="n">
+        <v>579361.91</v>
+      </c>
       <c r="H31" s="27" t="n"/>
-      <c r="I31" s="27" t="n"/>
+      <c r="I31" s="27" t="n">
+        <v>538443.98</v>
+      </c>
       <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="n"/>
-      <c r="L31" s="27" t="n"/>
-      <c r="M31" s="27" t="n"/>
+      <c r="K31" s="27" t="n">
+        <v>789653.47</v>
+      </c>
+      <c r="L31" s="27" t="n">
+        <v>435958.46</v>
+      </c>
+      <c r="M31" s="27" t="n">
+        <v>789653.47</v>
+      </c>
       <c r="N31" s="27" t="n"/>
-      <c r="O31" s="27" t="n"/>
-      <c r="P31" s="27" t="n"/>
+      <c r="O31" s="27" t="n">
+        <v>650803.54</v>
+      </c>
+      <c r="P31" s="27" t="n">
+        <v>682592.72</v>
+      </c>
       <c r="Q31" s="32" t="n"/>
       <c r="R31" s="29">
         <f>SUM(E31:P31)</f>
@@ -2711,9 +2877,15 @@
       <c r="H32" s="27" t="n"/>
       <c r="I32" s="27" t="n"/>
       <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="n"/>
-      <c r="L32" s="27" t="n"/>
-      <c r="M32" s="27" t="n"/>
+      <c r="K32" s="27" t="n">
+        <v>978</v>
+      </c>
+      <c r="L32" s="27" t="n">
+        <v>978</v>
+      </c>
+      <c r="M32" s="27" t="n">
+        <v>978</v>
+      </c>
       <c r="N32" s="27" t="n"/>
       <c r="O32" s="27" t="n"/>
       <c r="P32" s="27" t="n"/>
@@ -2741,16 +2913,26 @@
       </c>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
-      <c r="G33" s="27" t="n"/>
+      <c r="G33" s="27" t="n">
+        <v>55870.38</v>
+      </c>
       <c r="H33" s="27" t="n"/>
       <c r="I33" s="27" t="n"/>
       <c r="J33" s="27" t="n"/>
       <c r="K33" s="27" t="n"/>
-      <c r="L33" s="27" t="n"/>
-      <c r="M33" s="27" t="n"/>
+      <c r="L33" s="27" t="n">
+        <v>6006.62</v>
+      </c>
+      <c r="M33" s="27" t="n">
+        <v>22.12</v>
+      </c>
       <c r="N33" s="27" t="n"/>
-      <c r="O33" s="27" t="n"/>
-      <c r="P33" s="27" t="n"/>
+      <c r="O33" s="27" t="n">
+        <v>98992.3</v>
+      </c>
+      <c r="P33" s="27" t="n">
+        <v>52363.4</v>
+      </c>
       <c r="Q33" s="32" t="n"/>
       <c r="R33" s="29">
         <f>SUM(E33:P33)</f>
@@ -2808,17 +2990,33 @@
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
-      <c r="F35" s="27" t="n"/>
-      <c r="G35" s="27" t="n"/>
+      <c r="F35" s="27" t="n">
+        <v>19670.59</v>
+      </c>
+      <c r="G35" s="27" t="n">
+        <v>41190.69</v>
+      </c>
       <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n"/>
+      <c r="I35" s="27" t="n">
+        <v>50730.54</v>
+      </c>
       <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="n"/>
-      <c r="L35" s="27" t="n"/>
-      <c r="M35" s="27" t="n"/>
+      <c r="K35" s="27" t="n">
+        <v>1523.96</v>
+      </c>
+      <c r="L35" s="27" t="n">
+        <v>25814.09</v>
+      </c>
+      <c r="M35" s="27" t="n">
+        <v>1523.96</v>
+      </c>
       <c r="N35" s="27" t="n"/>
-      <c r="O35" s="27" t="n"/>
-      <c r="P35" s="27" t="n"/>
+      <c r="O35" s="27" t="n">
+        <v>44041.96</v>
+      </c>
+      <c r="P35" s="27" t="n">
+        <v>48135.87</v>
+      </c>
       <c r="Q35" s="32" t="n"/>
       <c r="R35" s="29">
         <f>SUM(E35:P35)</f>
@@ -2876,17 +3074,33 @@
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
+      <c r="F37" s="27" t="n">
+        <v>29587</v>
+      </c>
+      <c r="G37" s="27" t="n">
+        <v>28956.43</v>
+      </c>
       <c r="H37" s="27" t="n"/>
-      <c r="I37" s="27" t="n"/>
+      <c r="I37" s="27" t="n">
+        <v>36415.68</v>
+      </c>
       <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="n"/>
-      <c r="L37" s="27" t="n"/>
-      <c r="M37" s="27" t="n"/>
+      <c r="K37" s="27" t="n">
+        <v>127211.56</v>
+      </c>
+      <c r="L37" s="27" t="n">
+        <v>20428.06</v>
+      </c>
+      <c r="M37" s="27" t="n">
+        <v>127211.56</v>
+      </c>
       <c r="N37" s="27" t="n"/>
-      <c r="O37" s="27" t="n"/>
-      <c r="P37" s="27" t="n"/>
+      <c r="O37" s="27" t="n">
+        <v>26060.43</v>
+      </c>
+      <c r="P37" s="27" t="n">
+        <v>33830.64</v>
+      </c>
       <c r="Q37" s="32" t="n"/>
       <c r="R37" s="29">
         <f>SUM(E37:P37)</f>
@@ -3006,17 +3220,33 @@
         </is>
       </c>
       <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
-      <c r="G41" s="27" t="n"/>
+      <c r="F41" s="27" t="n">
+        <v>112565.26</v>
+      </c>
+      <c r="G41" s="27" t="n">
+        <v>121623.62</v>
+      </c>
       <c r="H41" s="27" t="n"/>
-      <c r="I41" s="27" t="n"/>
+      <c r="I41" s="27" t="n">
+        <v>112981.47</v>
+      </c>
       <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="n"/>
-      <c r="L41" s="27" t="n"/>
-      <c r="M41" s="27" t="n"/>
+      <c r="K41" s="27" t="n">
+        <v>165739.6</v>
+      </c>
+      <c r="L41" s="27" t="n">
+        <v>91484.60000000001</v>
+      </c>
+      <c r="M41" s="27" t="n">
+        <v>165739.6</v>
+      </c>
       <c r="N41" s="27" t="n"/>
-      <c r="O41" s="27" t="n"/>
-      <c r="P41" s="27" t="n"/>
+      <c r="O41" s="27" t="n">
+        <v>135806.65</v>
+      </c>
+      <c r="P41" s="27" t="n">
+        <v>142651.73</v>
+      </c>
       <c r="Q41" s="32" t="n"/>
       <c r="R41" s="29">
         <f>SUM(E41:P41)</f>
@@ -3045,9 +3275,15 @@
       <c r="H42" s="27" t="n"/>
       <c r="I42" s="27" t="n"/>
       <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="n"/>
-      <c r="L42" s="27" t="n"/>
-      <c r="M42" s="27" t="n"/>
+      <c r="K42" s="27" t="n">
+        <v>205.38</v>
+      </c>
+      <c r="L42" s="27" t="n">
+        <v>205.38</v>
+      </c>
+      <c r="M42" s="27" t="n">
+        <v>205.38</v>
+      </c>
       <c r="N42" s="27" t="n"/>
       <c r="O42" s="27" t="n"/>
       <c r="P42" s="27" t="n"/>
@@ -3075,16 +3311,26 @@
       </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
-      <c r="G43" s="27" t="n"/>
+      <c r="G43" s="27" t="n">
+        <v>11732.78</v>
+      </c>
       <c r="H43" s="27" t="n"/>
       <c r="I43" s="27" t="n"/>
       <c r="J43" s="27" t="n"/>
       <c r="K43" s="27" t="n"/>
-      <c r="L43" s="27" t="n"/>
-      <c r="M43" s="27" t="n"/>
+      <c r="L43" s="27" t="n">
+        <v>1261.39</v>
+      </c>
+      <c r="M43" s="27" t="n">
+        <v>4.65</v>
+      </c>
       <c r="N43" s="27" t="n"/>
-      <c r="O43" s="27" t="n"/>
-      <c r="P43" s="27" t="n"/>
+      <c r="O43" s="27" t="n">
+        <v>20788.38</v>
+      </c>
+      <c r="P43" s="27" t="n">
+        <v>10996.31</v>
+      </c>
       <c r="Q43" s="32" t="n"/>
       <c r="R43" s="29">
         <f>SUM(E43:P43)</f>
@@ -3142,17 +3388,33 @@
         </is>
       </c>
       <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n"/>
-      <c r="G45" s="27" t="n"/>
+      <c r="F45" s="27" t="n">
+        <v>4130.82</v>
+      </c>
+      <c r="G45" s="27" t="n">
+        <v>8650.059999999999</v>
+      </c>
       <c r="H45" s="27" t="n"/>
-      <c r="I45" s="27" t="n"/>
+      <c r="I45" s="27" t="n">
+        <v>10653.42</v>
+      </c>
       <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="n"/>
-      <c r="L45" s="27" t="n"/>
-      <c r="M45" s="27" t="n"/>
+      <c r="K45" s="27" t="n">
+        <v>320.03</v>
+      </c>
+      <c r="L45" s="27" t="n">
+        <v>5420.95</v>
+      </c>
+      <c r="M45" s="27" t="n">
+        <v>320.03</v>
+      </c>
       <c r="N45" s="27" t="n"/>
-      <c r="O45" s="27" t="n"/>
-      <c r="P45" s="27" t="n"/>
+      <c r="O45" s="27" t="n">
+        <v>9248.799999999999</v>
+      </c>
+      <c r="P45" s="27" t="n">
+        <v>10108.53</v>
+      </c>
       <c r="Q45" s="32" t="n"/>
       <c r="R45" s="29">
         <f>SUM(E45:P45)</f>
@@ -3210,17 +3472,33 @@
         </is>
       </c>
       <c r="E47" s="27" t="n"/>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
+      <c r="F47" s="27" t="n">
+        <v>6206.96</v>
+      </c>
+      <c r="G47" s="27" t="n">
+        <v>6080.85</v>
+      </c>
       <c r="H47" s="27" t="n"/>
-      <c r="I47" s="27" t="n"/>
+      <c r="I47" s="27" t="n">
+        <v>7647.29</v>
+      </c>
       <c r="J47" s="27" t="n"/>
-      <c r="K47" s="27" t="n"/>
-      <c r="L47" s="27" t="n"/>
-      <c r="M47" s="27" t="n"/>
+      <c r="K47" s="27" t="n">
+        <v>26714.41</v>
+      </c>
+      <c r="L47" s="27" t="n">
+        <v>4289.9</v>
+      </c>
+      <c r="M47" s="27" t="n">
+        <v>26714.41</v>
+      </c>
       <c r="N47" s="27" t="n"/>
-      <c r="O47" s="27" t="n"/>
-      <c r="P47" s="27" t="n"/>
+      <c r="O47" s="27" t="n">
+        <v>5472.69</v>
+      </c>
+      <c r="P47" s="27" t="n">
+        <v>7104.43</v>
+      </c>
       <c r="Q47" s="32" t="n"/>
       <c r="R47" s="29">
         <f>SUM(E47:P47)</f>
@@ -3525,17 +3803,33 @@
         <v>66</v>
       </c>
       <c r="E57" s="27" t="n"/>
-      <c r="F57" s="27" t="n"/>
-      <c r="G57" s="27" t="n"/>
+      <c r="F57" s="27" t="n">
+        <v>70706.89</v>
+      </c>
+      <c r="G57" s="27" t="n">
+        <v>16530.46</v>
+      </c>
       <c r="H57" s="27" t="n"/>
-      <c r="I57" s="27" t="n"/>
+      <c r="I57" s="27" t="n">
+        <v>21341.12</v>
+      </c>
       <c r="J57" s="27" t="n"/>
-      <c r="K57" s="27" t="n"/>
-      <c r="L57" s="27" t="n"/>
-      <c r="M57" s="27" t="n"/>
+      <c r="K57" s="27" t="n">
+        <v>35885.28</v>
+      </c>
+      <c r="L57" s="27" t="n">
+        <v>44895.03</v>
+      </c>
+      <c r="M57" s="27" t="n">
+        <v>35885.28</v>
+      </c>
       <c r="N57" s="27" t="n"/>
-      <c r="O57" s="27" t="n"/>
-      <c r="P57" s="27" t="n"/>
+      <c r="O57" s="27" t="n">
+        <v>65596.46000000001</v>
+      </c>
+      <c r="P57" s="27" t="n">
+        <v>15508</v>
+      </c>
       <c r="Q57" s="32" t="n"/>
       <c r="R57" s="32" t="n"/>
       <c r="S57" s="32" t="n"/>
@@ -3617,17 +3911,25 @@
         </is>
       </c>
       <c r="E60" s="27" t="n"/>
-      <c r="F60" s="27" t="n"/>
+      <c r="F60" s="27" t="n">
+        <v>1615.53</v>
+      </c>
       <c r="G60" s="27" t="n"/>
       <c r="H60" s="27" t="n"/>
       <c r="I60" s="27" t="n"/>
       <c r="J60" s="27" t="n"/>
       <c r="K60" s="27" t="n"/>
-      <c r="L60" s="27" t="n"/>
+      <c r="L60" s="27" t="n">
+        <v>285.38</v>
+      </c>
       <c r="M60" s="27" t="n"/>
       <c r="N60" s="27" t="n"/>
-      <c r="O60" s="27" t="n"/>
-      <c r="P60" s="27" t="n"/>
+      <c r="O60" s="27" t="n">
+        <v>285.38</v>
+      </c>
+      <c r="P60" s="27" t="n">
+        <v>234.08</v>
+      </c>
       <c r="Q60" s="32" t="n"/>
       <c r="R60" s="29">
         <f>SUM(E60:P60)</f>
@@ -3652,13 +3954,21 @@
       </c>
       <c r="E61" s="27" t="n"/>
       <c r="F61" s="27" t="n"/>
-      <c r="G61" s="27" t="n"/>
+      <c r="G61" s="27" t="n">
+        <v>856.14</v>
+      </c>
       <c r="H61" s="27" t="n"/>
       <c r="I61" s="27" t="n"/>
       <c r="J61" s="27" t="n"/>
-      <c r="K61" s="27" t="n"/>
-      <c r="L61" s="27" t="n"/>
-      <c r="M61" s="27" t="n"/>
+      <c r="K61" s="27" t="n">
+        <v>1949.52</v>
+      </c>
+      <c r="L61" s="27" t="n">
+        <v>1949.52</v>
+      </c>
+      <c r="M61" s="27" t="n">
+        <v>1949.52</v>
+      </c>
       <c r="N61" s="27" t="n"/>
       <c r="O61" s="27" t="n"/>
       <c r="P61" s="27" t="n"/>
@@ -3690,9 +4000,15 @@
       <c r="H62" s="27" t="n"/>
       <c r="I62" s="27" t="n"/>
       <c r="J62" s="27" t="n"/>
-      <c r="K62" s="27" t="n"/>
-      <c r="L62" s="27" t="n"/>
-      <c r="M62" s="27" t="n"/>
+      <c r="K62" s="27" t="n">
+        <v>12432.5</v>
+      </c>
+      <c r="L62" s="27" t="n">
+        <v>12432.5</v>
+      </c>
+      <c r="M62" s="27" t="n">
+        <v>12432.5</v>
+      </c>
       <c r="N62" s="27" t="n"/>
       <c r="O62" s="27" t="n"/>
       <c r="P62" s="27" t="n"/>
@@ -4372,15 +4688,15 @@
       <c r="V86" s="102" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="74">
-      <c r="F87" s="120">
+      <c r="F87" s="244">
         <f>+F86/F75</f>
         <v/>
       </c>
-      <c r="P87" s="120">
+      <c r="P87" s="244">
         <f>+P86/P75</f>
         <v/>
       </c>
-      <c r="Q87" s="120" t="n"/>
+      <c r="Q87" s="244" t="n"/>
       <c r="V87" s="102" t="n"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" s="74">
@@ -4437,26 +4753,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S98"/>
+  <dimension ref="A2:R98"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="49.21875" customWidth="1" style="70" min="2" max="2"/>
     <col width="16.109375" customWidth="1" style="10" min="3" max="3"/>
     <col width="16.44140625" customWidth="1" style="70" min="4" max="4"/>
     <col width="11.109375" customWidth="1" style="70" min="5" max="5"/>
-    <col width="13.109375" customWidth="1" style="70" min="6" max="6"/>
+    <col width="13.21875" customWidth="1" style="70" min="6" max="6"/>
     <col width="11.109375" customWidth="1" style="70" min="7" max="12"/>
     <col width="11.88671875" customWidth="1" style="70" min="13" max="13"/>
     <col width="11.109375" customWidth="1" style="70" min="14" max="14"/>
     <col width="14.109375" customWidth="1" style="70" min="15" max="16"/>
-    <col width="13.109375" customWidth="1" style="70" min="17" max="17"/>
+    <col width="13.21875" customWidth="1" style="70" min="17" max="17"/>
     <col width="13.88671875" customWidth="1" style="70" min="18" max="18"/>
     <col width="12.5546875" customWidth="1" style="70" min="19" max="16384"/>
   </cols>
@@ -4626,9 +4942,7 @@
       <c r="G8" s="135" t="n"/>
       <c r="H8" s="135" t="n"/>
       <c r="I8" s="135" t="n"/>
-      <c r="J8" s="135" t="n">
-        <v>50</v>
-      </c>
+      <c r="J8" s="135" t="n"/>
       <c r="K8" s="135" t="n"/>
       <c r="L8" s="135" t="n"/>
       <c r="M8" s="135" t="n"/>
@@ -4662,9 +4976,7 @@
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n">
-        <v>91023.50999999999</v>
-      </c>
+      <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
@@ -4697,9 +5009,7 @@
       <c r="G10" s="52" t="n"/>
       <c r="H10" s="52" t="n"/>
       <c r="I10" s="52" t="n"/>
-      <c r="J10" s="52" t="n">
-        <v>2825.92</v>
-      </c>
+      <c r="J10" s="52" t="n"/>
       <c r="K10" s="52" t="n"/>
       <c r="L10" s="52" t="n"/>
       <c r="M10" s="52" t="n"/>
@@ -4989,9 +5299,7 @@
       <c r="G20" s="135" t="n"/>
       <c r="H20" s="135" t="n"/>
       <c r="I20" s="135" t="n"/>
-      <c r="J20" s="135" t="n">
-        <v>4</v>
-      </c>
+      <c r="J20" s="135" t="n"/>
       <c r="K20" s="135" t="n"/>
       <c r="L20" s="135" t="n"/>
       <c r="M20" s="135" t="n"/>
@@ -5021,9 +5329,7 @@
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
       <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="n">
-        <v>1629.85</v>
-      </c>
+      <c r="J21" s="27" t="n"/>
       <c r="K21" s="27" t="n"/>
       <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
@@ -5053,9 +5359,7 @@
       <c r="G22" s="52" t="n"/>
       <c r="H22" s="52" t="n"/>
       <c r="I22" s="52" t="n"/>
-      <c r="J22" s="52" t="n">
-        <v>128.3</v>
-      </c>
+      <c r="J22" s="52" t="n"/>
       <c r="K22" s="52" t="n"/>
       <c r="L22" s="52" t="n"/>
       <c r="M22" s="52" t="n"/>
@@ -6411,7 +6715,7 @@
       <c r="N71" s="153" t="n"/>
     </row>
     <row r="72" ht="15.75" customHeight="1" s="74">
-      <c r="B72" s="178">
+      <c r="B72" s="245">
         <f>+'N.2 MEMORANDUM'!C8</f>
         <v/>
       </c>
@@ -6442,7 +6746,7 @@
       <c r="Q72" s="83" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="74">
-      <c r="B73" s="159" t="n"/>
+      <c r="B73" s="246" t="n"/>
       <c r="C73" s="10" t="n"/>
       <c r="D73" s="70" t="n"/>
       <c r="E73" s="70" t="n"/>
@@ -6776,7 +7080,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" s="74"/>
     <row r="97" ht="15.75" customHeight="1" s="74">
-      <c r="F97" s="170">
+      <c r="F97" s="247">
         <f>+F95/F93</f>
         <v/>
       </c>
@@ -6806,7 +7110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:Z28"/>
+  <dimension ref="B2:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -6815,11 +7119,11 @@
       <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="70" min="1" max="1"/>
     <col width="36.5546875" customWidth="1" style="70" min="2" max="2"/>
-    <col width="8.44140625" customWidth="1" style="70" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="70" min="3" max="3"/>
     <col width="12.77734375" customWidth="1" style="70" min="4" max="4"/>
     <col width="11.109375" customWidth="1" style="70" min="5" max="12"/>
     <col width="11.88671875" customWidth="1" style="70" min="13" max="13"/>
@@ -6872,17 +7176,17 @@
           <t>MODELOS 115</t>
         </is>
       </c>
-      <c r="E5" s="244" t="n"/>
-      <c r="F5" s="244" t="n"/>
-      <c r="G5" s="244" t="n"/>
-      <c r="H5" s="244" t="n"/>
-      <c r="I5" s="244" t="n"/>
-      <c r="J5" s="244" t="n"/>
-      <c r="K5" s="244" t="n"/>
-      <c r="L5" s="244" t="n"/>
-      <c r="M5" s="244" t="n"/>
-      <c r="N5" s="244" t="n"/>
-      <c r="O5" s="244" t="n"/>
+      <c r="E5" s="248" t="n"/>
+      <c r="F5" s="248" t="n"/>
+      <c r="G5" s="248" t="n"/>
+      <c r="H5" s="248" t="n"/>
+      <c r="I5" s="248" t="n"/>
+      <c r="J5" s="248" t="n"/>
+      <c r="K5" s="248" t="n"/>
+      <c r="L5" s="248" t="n"/>
+      <c r="M5" s="248" t="n"/>
+      <c r="N5" s="248" t="n"/>
+      <c r="O5" s="248" t="n"/>
       <c r="P5" s="129" t="inlineStr">
         <is>
           <t>MOD 180</t>
@@ -7367,11 +7671,11 @@
       <c r="N21" s="177" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="74">
-      <c r="B22" s="178">
+      <c r="B22" s="245">
         <f>+'N.2 MEMORANDUM'!C8</f>
         <v/>
       </c>
-      <c r="C22" s="178" t="n"/>
+      <c r="C22" s="245" t="n"/>
       <c r="D22" s="83" t="n"/>
       <c r="E22" s="83" t="n"/>
       <c r="F22" s="179">
@@ -7451,17 +7755,17 @@
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" style="181" min="1" max="1"/>
     <col width="24" customWidth="1" style="181" min="2" max="2"/>
     <col width="12.5546875" customWidth="1" style="181" min="3" max="3"/>
     <col width="11" customWidth="1" style="181" min="4" max="4"/>
-    <col width="15.6640625" customWidth="1" style="181" min="5" max="5"/>
+    <col width="15.77734375" customWidth="1" style="181" min="5" max="5"/>
     <col width="15.21875" customWidth="1" style="181" min="6" max="6"/>
-    <col width="15.6640625" customWidth="1" style="181" min="7" max="14"/>
-    <col width="18.109375" customWidth="1" style="181" min="15" max="15"/>
-    <col width="17.109375" customWidth="1" style="181" min="16" max="18"/>
+    <col width="15.77734375" customWidth="1" style="181" min="7" max="14"/>
+    <col width="18.21875" customWidth="1" style="181" min="15" max="15"/>
+    <col width="17.21875" customWidth="1" style="181" min="16" max="18"/>
     <col width="12.5546875" customWidth="1" style="181" min="19" max="16384"/>
   </cols>
   <sheetData>
@@ -7500,7 +7804,7 @@
       <c r="F4" s="14" t="n"/>
       <c r="G4" s="14" t="n"/>
       <c r="H4" s="14" t="n"/>
-      <c r="I4" s="245" t="n"/>
+      <c r="I4" s="249" t="n"/>
       <c r="J4" s="237" t="inlineStr">
         <is>
           <t>Percepciones NO derivadas incapacidad</t>
@@ -7509,7 +7813,7 @@
       <c r="K4" s="14" t="n"/>
       <c r="L4" s="14" t="n"/>
       <c r="M4" s="14" t="n"/>
-      <c r="N4" s="245" t="n"/>
+      <c r="N4" s="249" t="n"/>
     </row>
     <row r="5" ht="14.4" customHeight="1" s="74">
       <c r="B5" s="185" t="inlineStr">
@@ -7522,27 +7826,27 @@
           <t>Dinerarias</t>
         </is>
       </c>
-      <c r="F5" s="245" t="n"/>
+      <c r="F5" s="249" t="n"/>
       <c r="G5" s="238" t="inlineStr">
         <is>
           <t>Especie</t>
         </is>
       </c>
       <c r="H5" s="14" t="n"/>
-      <c r="I5" s="245" t="n"/>
+      <c r="I5" s="249" t="n"/>
       <c r="J5" s="238" t="inlineStr">
         <is>
           <t>Dinerarias</t>
         </is>
       </c>
-      <c r="K5" s="245" t="n"/>
+      <c r="K5" s="249" t="n"/>
       <c r="L5" s="238" t="inlineStr">
         <is>
           <t>Especie</t>
         </is>
       </c>
       <c r="M5" s="14" t="n"/>
-      <c r="N5" s="245" t="n"/>
+      <c r="N5" s="249" t="n"/>
     </row>
     <row r="6" ht="28.8" customHeight="1" s="74">
       <c r="B6" s="186" t="inlineStr">
@@ -11800,15 +12104,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="3.77734375" customWidth="1" style="190" min="1" max="1"/>
-    <col width="22.33203125" customWidth="1" style="190" min="2" max="2"/>
+    <col width="22.21875" customWidth="1" style="190" min="2" max="2"/>
     <col width="16.109375" customWidth="1" style="190" min="3" max="3"/>
     <col width="14.21875" customWidth="1" style="190" min="4" max="4"/>
     <col width="14.33203125" customWidth="1" style="190" min="5" max="5"/>
     <col width="13.21875" customWidth="1" style="190" min="6" max="6"/>
-    <col width="15.6640625" customWidth="1" style="190" min="7" max="7"/>
+    <col width="15.77734375" customWidth="1" style="190" min="7" max="7"/>
     <col width="16.109375" customWidth="1" style="190" min="8" max="8"/>
     <col width="14.33203125" customWidth="1" style="190" min="9" max="9"/>
     <col width="12.6640625" customWidth="1" style="190" min="10" max="16384"/>
@@ -11844,7 +12148,7 @@
           <t>L00</t>
         </is>
       </c>
-      <c r="F5" s="246" t="n"/>
+      <c r="F5" s="250" t="n"/>
       <c r="G5" s="193" t="inlineStr">
         <is>
           <t>REF</t>
@@ -11906,8 +12210,8 @@
         <f>RLCs!D13</f>
         <v/>
       </c>
-      <c r="G7" s="199" t="n"/>
-      <c r="H7" s="200">
+      <c r="G7" s="251" t="n"/>
+      <c r="H7" s="252">
         <f>E7/D7</f>
         <v/>
       </c>
@@ -11930,8 +12234,8 @@
         <f>RLCs!H13</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="n"/>
-      <c r="H8" s="200">
+      <c r="G8" s="251" t="n"/>
+      <c r="H8" s="252">
         <f>E8/D8</f>
         <v/>
       </c>
@@ -11954,8 +12258,8 @@
         <f>RLCs!L13</f>
         <v/>
       </c>
-      <c r="G9" s="199" t="n"/>
-      <c r="H9" s="200">
+      <c r="G9" s="251" t="n"/>
+      <c r="H9" s="252">
         <f>E9/D9</f>
         <v/>
       </c>
@@ -11978,8 +12282,8 @@
         <f>RLCs!P13</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="n"/>
-      <c r="H10" s="200">
+      <c r="G10" s="251" t="n"/>
+      <c r="H10" s="252">
         <f>E10/D10</f>
         <v/>
       </c>
@@ -12002,8 +12306,8 @@
         <f>RLCs!T13</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="n"/>
-      <c r="H11" s="200">
+      <c r="G11" s="251" t="n"/>
+      <c r="H11" s="252">
         <f>E11/D11</f>
         <v/>
       </c>
@@ -12026,8 +12330,8 @@
         <f>RLCs!D27</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="n"/>
-      <c r="H12" s="200">
+      <c r="G12" s="251" t="n"/>
+      <c r="H12" s="252">
         <f>E12/D12</f>
         <v/>
       </c>
@@ -12050,8 +12354,8 @@
         <f>RLCs!H27</f>
         <v/>
       </c>
-      <c r="G13" s="199" t="n"/>
-      <c r="H13" s="200">
+      <c r="G13" s="251" t="n"/>
+      <c r="H13" s="252">
         <f>E13/D13</f>
         <v/>
       </c>
@@ -12074,8 +12378,8 @@
         <f>RLCs!L27</f>
         <v/>
       </c>
-      <c r="G14" s="199" t="n"/>
-      <c r="H14" s="200">
+      <c r="G14" s="251" t="n"/>
+      <c r="H14" s="252">
         <f>E14/D14</f>
         <v/>
       </c>
@@ -12098,8 +12402,8 @@
         <f>RLCs!P27</f>
         <v/>
       </c>
-      <c r="G15" s="199" t="n"/>
-      <c r="H15" s="200">
+      <c r="G15" s="251" t="n"/>
+      <c r="H15" s="252">
         <f>E15/D15</f>
         <v/>
       </c>
@@ -12122,8 +12426,8 @@
         <f>RLCs!T27</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="n"/>
-      <c r="H16" s="200">
+      <c r="G16" s="251" t="n"/>
+      <c r="H16" s="252">
         <f>E16/D16</f>
         <v/>
       </c>
@@ -12146,8 +12450,8 @@
         <f>RLCs!D40</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="n"/>
-      <c r="H17" s="200">
+      <c r="G17" s="251" t="n"/>
+      <c r="H17" s="252">
         <f>E17/D17</f>
         <v/>
       </c>
@@ -12170,8 +12474,8 @@
         <f>RLCs!H40</f>
         <v/>
       </c>
-      <c r="G18" s="199" t="n"/>
-      <c r="H18" s="200">
+      <c r="G18" s="251" t="n"/>
+      <c r="H18" s="252">
         <f>E18/D18</f>
         <v/>
       </c>
@@ -12305,7 +12609,7 @@
       <c r="E28" s="216" t="n"/>
       <c r="F28" s="216" t="n"/>
       <c r="G28" s="216" t="n"/>
-      <c r="H28" s="217">
+      <c r="H28" s="253">
         <f>+H27/E19</f>
         <v/>
       </c>
@@ -12345,7 +12649,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="190" min="1" max="16384"/>
   </cols>
@@ -13079,18 +13383,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:T28"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055555555555" footer="0.5118055555555555"/>
   <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
@@ -13110,10 +13414,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="223" min="1" max="1"/>
-    <col width="16" customWidth="1" style="223" min="2" max="2"/>
+    <col width="15.88671875" customWidth="1" style="223" min="2" max="2"/>
     <col width="12.6640625" customWidth="1" style="223" min="3" max="8"/>
     <col width="13.88671875" customWidth="1" style="223" min="9" max="9"/>
     <col width="10.44140625" customWidth="1" style="223" min="10" max="10"/>
@@ -13136,8 +13440,8 @@
           <t>N.2</t>
         </is>
       </c>
-      <c r="K2" s="247" t="n"/>
-      <c r="L2" s="248" t="n"/>
+      <c r="K2" s="254" t="n"/>
+      <c r="L2" s="255" t="n"/>
     </row>
     <row r="3" ht="13.2" customHeight="1" s="74">
       <c r="B3" s="70" t="n"/>
@@ -13148,8 +13452,8 @@
       <c r="G3" s="70" t="n"/>
       <c r="H3" s="70" t="n"/>
       <c r="I3" s="70" t="n"/>
-      <c r="J3" s="249" t="n"/>
-      <c r="L3" s="250" t="n"/>
+      <c r="J3" s="256" t="n"/>
+      <c r="L3" s="257" t="n"/>
     </row>
     <row r="4" ht="13.2" customHeight="1" s="74">
       <c r="B4" s="70" t="n"/>
@@ -13160,9 +13464,9 @@
       <c r="G4" s="70" t="n"/>
       <c r="H4" s="70" t="n"/>
       <c r="I4" s="70" t="n"/>
-      <c r="J4" s="251" t="n"/>
-      <c r="K4" s="252" t="n"/>
-      <c r="L4" s="253" t="n"/>
+      <c r="J4" s="258" t="n"/>
+      <c r="K4" s="259" t="n"/>
+      <c r="L4" s="260" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="70" t="n"/>
@@ -13216,7 +13520,7 @@
         </is>
       </c>
       <c r="K7" s="227" t="n"/>
-      <c r="L7" s="228" t="n"/>
+      <c r="L7" s="261" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="225" t="inlineStr">
@@ -13224,7 +13528,7 @@
           <t>AUDITORIA</t>
         </is>
       </c>
-      <c r="C8" s="229" t="n">
+      <c r="C8" s="262" t="n">
         <v>44561</v>
       </c>
       <c r="E8" s="181" t="n"/>
